--- a/Drills/Python/project/Filtered_Timetable.xlsx
+++ b/Drills/Python/project/Filtered_Timetable.xlsx
@@ -538,7 +538,7 @@
     <row r="1" ht="28" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Timetable – BSIT-6th-M1 | Spring Semester 2026</t>
+          <t>Timetable – BSIT-6th-M2 | Spring Semester 2026</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>G-Floor-  R#3</t>
+          <t>G-Floor-  R#2</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -625,12 +625,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>BSIT-6th-M1</t>
+          <t>BSIT-6th-M2</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Mr. Abid Ali</t>
+          <t>Ms Iram Shazadi</t>
         </is>
       </c>
     </row>
@@ -642,27 +642,27 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>10:00 - 11:20</t>
+          <t>8:40 - 10:00</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Second Floor Lab#2</t>
+          <t>First Floor R#1</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>IT-502-T</t>
+          <t>IT-506-T</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>BSIT-6th-M1</t>
+          <t>BSIT-6th-M2</t>
         </is>
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>Dr. Hassan Tariq</t>
+          <t>Mr.Ali Usama</t>
         </is>
       </c>
     </row>
@@ -674,87 +674,87 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
+          <t>10:00 - 11:20</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>First Floor Lab#3</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>IT-510-P</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>BSIT-6th-M1, BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>Dr. Syed Mushhad Mustuzhar Gilani</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
           <t>8:00 - 9:20</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>Second Floor  Lab#1</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>IT-506-T</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>Dr. Hassan Tariq</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="8" t="inlineStr"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>10:00 - 11:20</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>G-Floor R#2</t>
+        </is>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>IT-508-T</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr">
+        <is>
+          <t>BSIT-6th-M1, BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
+        <is>
+          <t>Ms. Rizwana Usman</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="10" t="inlineStr"/>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>9:20 - 10:40</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>First Floor Lab#3</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>IT-510-P</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>IT-510-T</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
         <is>
           <t>BSIT-6th-M1, BSIT-6th-M2</t>
         </is>
       </c>
-      <c r="F7" s="8" t="inlineStr">
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>Dr. Syed Mushhad Mustuzhar Gilani</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>8:00 - 9:20</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>G-Floor R#2</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>IT-508-T</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>Ms. Rizwana Usman</t>
         </is>
       </c>
     </row>
@@ -762,27 +762,27 @@
       <c r="A9" s="10" t="inlineStr"/>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>9:20 - 10:40</t>
+          <t>10:40 - 12:00</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>First Floor Lab#3</t>
+          <t>G-Floor R#2</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>IT-510-T</t>
+          <t>IT-512-P</t>
         </is>
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
+          <t>BSIT-6th-M2</t>
         </is>
       </c>
       <c r="F9" s="10" t="inlineStr">
         <is>
-          <t>Dr. Syed Mushhad Mustuzhar Gilani</t>
+          <t>Ms Iram Shazadi</t>
         </is>
       </c>
     </row>
@@ -790,64 +790,64 @@
       <c r="A10" s="10" t="inlineStr"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
-          <t>10:40 - 12:00</t>
+          <t>12:00 - 1:00</t>
         </is>
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>DSA Building R#1</t>
+          <t>G-Floor R#2</t>
         </is>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>IT-512-P</t>
+          <t>IT-504-T</t>
         </is>
       </c>
       <c r="E10" s="10" t="inlineStr">
         <is>
-          <t>BSIT-6th-M1</t>
+          <t>BSIT-6th-M1, BSIT-6th-M2</t>
         </is>
       </c>
       <c r="F10" s="10" t="inlineStr">
         <is>
-          <t>Mr. Abid Ali</t>
+          <t>Sana Azam</t>
         </is>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="10" t="inlineStr"/>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>12:00 - 1:00</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>G-Floor R#2</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>IT-504-T</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t>Sana Azam</t>
+      <c r="A11" s="11" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B11" s="12" t="inlineStr">
+        <is>
+          <t>2:10 - 3:30</t>
+        </is>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>First Floor Lab#2</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>IT-502-T</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>Dr. Hassan Tariq</t>
         </is>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
+      <c r="A12" s="12" t="inlineStr"/>
       <c r="B12" s="12" t="inlineStr">
         <is>
           <t>8:00 - 9:20</t>
@@ -855,7 +855,7 @@
       </c>
       <c r="C12" s="12" t="inlineStr">
         <is>
-          <t>Second Floor  Lab#3</t>
+          <t>Ground Floor R3</t>
         </is>
       </c>
       <c r="D12" s="12" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="E12" s="12" t="inlineStr">
         <is>
-          <t>BSIT-6th-M1</t>
+          <t>BSIT-6th-M2</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Dr. Hassan Tariq</t>
+          <t>Mr.Ali Usama</t>
         </is>
       </c>
     </row>
@@ -878,27 +878,27 @@
       <c r="A13" s="12" t="inlineStr"/>
       <c r="B13" s="12" t="inlineStr">
         <is>
-          <t>9:20 - 10:40</t>
+          <t>10:40 - 12:00</t>
         </is>
       </c>
       <c r="C13" s="12" t="inlineStr">
         <is>
-          <t>Second Floor  Lab#4</t>
+          <t>Second Floor  Lab#3</t>
         </is>
       </c>
       <c r="D13" s="12" t="inlineStr">
         <is>
-          <t>IT-502-P</t>
+          <t>IT-504-T</t>
         </is>
       </c>
       <c r="E13" s="12" t="inlineStr">
         <is>
-          <t>BSIT-6th-M1</t>
+          <t>BSIT-6th-M1, BSIT-6th-M2</t>
         </is>
       </c>
       <c r="F13" s="12" t="inlineStr">
         <is>
-          <t>Dr. Hassan Tariq</t>
+          <t>Sana Azam</t>
         </is>
       </c>
     </row>
@@ -906,27 +906,27 @@
       <c r="A14" s="12" t="inlineStr"/>
       <c r="B14" s="12" t="inlineStr">
         <is>
-          <t>10:40 - 12:00</t>
+          <t>12:00 - 1:00</t>
         </is>
       </c>
       <c r="C14" s="12" t="inlineStr">
         <is>
-          <t>Second Floor  Lab#3</t>
+          <t>First Floor Lab#2</t>
         </is>
       </c>
       <c r="D14" s="12" t="inlineStr">
         <is>
-          <t>IT-504-T</t>
+          <t>IT-502-P</t>
         </is>
       </c>
       <c r="E14" s="12" t="inlineStr">
         <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
+          <t>BSIT-6th-M2</t>
         </is>
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>Sana Azam</t>
+          <t>Dr. Hassan Tariq</t>
         </is>
       </c>
     </row>

--- a/Drills/Python/project/Filtered_Timetable.xlsx
+++ b/Drills/Python/project/Filtered_Timetable.xlsx
@@ -47,7 +47,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -84,11 +84,6 @@
         <fgColor rgb="00FCE4D6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -116,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -146,12 +141,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +571,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>8:00 - 9:20</t>
+          <t>8:00 - 9:40</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -592,14 +581,10 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>IT-508-P</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
-        </is>
-      </c>
+          <t>IT-508-P BSIT-6th-M1 BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr"/>
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Ms. Rizwana Usman</t>
@@ -610,24 +595,20 @@
       <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>10:40 - 12:00</t>
+          <t>9:40 - 11:20</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>G-Floor-  R#2</t>
+          <t>Engineering -Block- 3rd Floor # R-1</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>IT-512-T</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M2</t>
-        </is>
-      </c>
+          <t>IT-512-T BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr"/>
       <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Ms Iram Shazadi</t>
@@ -642,7 +623,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>8:40 - 10:00</t>
+          <t>8:50 - 10:30</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -652,14 +633,10 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>IT-506-T</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M2</t>
-        </is>
-      </c>
+          <t>IT-506-T BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="inlineStr">
         <is>
           <t>Mr.Ali Usama</t>
@@ -674,7 +651,7 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>10:00 - 11:20</t>
+          <t>10:30 - 12:10</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
@@ -684,14 +661,10 @@
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>IT-510-P</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
-        </is>
-      </c>
+          <t>IT-510-P BSIT-6th-M1 BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr"/>
       <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Dr. Syed Mushhad Mustuzhar Gilani</t>
@@ -706,7 +679,7 @@
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>8:00 - 9:20</t>
+          <t>1:10 - 2:50</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
@@ -716,17 +689,13 @@
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>IT-508-T</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
-        </is>
-      </c>
+          <t>IT-504-T BSIT-6th-M1 BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr"/>
       <c r="F7" s="10" t="inlineStr">
         <is>
-          <t>Ms. Rizwana Usman</t>
+          <t>Sana Azam</t>
         </is>
       </c>
     </row>
@@ -734,27 +703,23 @@
       <c r="A8" s="10" t="inlineStr"/>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>9:20 - 10:40</t>
+          <t>8:00 - 9:40</t>
         </is>
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>First Floor Lab#3</t>
+          <t>First Floor Lab#1</t>
         </is>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>IT-510-T</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
-        </is>
-      </c>
+          <t>IT-512-P BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr"/>
       <c r="F8" s="10" t="inlineStr">
         <is>
-          <t>Dr. Syed Mushhad Mustuzhar Gilani</t>
+          <t>Ms Iram Shazadi</t>
         </is>
       </c>
     </row>
@@ -762,27 +727,23 @@
       <c r="A9" s="10" t="inlineStr"/>
       <c r="B9" s="10" t="inlineStr">
         <is>
-          <t>10:40 - 12:00</t>
+          <t>9:40 - 11:20</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>G-Floor R#2</t>
+          <t>First Floor Lab#3</t>
         </is>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>IT-512-P</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M2</t>
-        </is>
-      </c>
+          <t>IT-510-T BSIT-6th-M1 BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr"/>
       <c r="F9" s="10" t="inlineStr">
         <is>
-          <t>Ms Iram Shazadi</t>
+          <t>Dr. Syed Mushhad Mustuzhar Gilani</t>
         </is>
       </c>
     </row>
@@ -790,7 +751,7 @@
       <c r="A10" s="10" t="inlineStr"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
-          <t>12:00 - 1:00</t>
+          <t>11:20 - 1:00</t>
         </is>
       </c>
       <c r="C10" s="10" t="inlineStr">
@@ -800,133 +761,13 @@
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>IT-504-T</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
-        </is>
-      </c>
+          <t>IT-508-T BSIT-6th-M1 BSIT-6th-M2</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr"/>
       <c r="F10" s="10" t="inlineStr">
         <is>
-          <t>Sana Azam</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B11" s="12" t="inlineStr">
-        <is>
-          <t>2:10 - 3:30</t>
-        </is>
-      </c>
-      <c r="C11" s="12" t="inlineStr">
-        <is>
-          <t>First Floor Lab#2</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
-        <is>
-          <t>IT-502-T</t>
-        </is>
-      </c>
-      <c r="E11" s="12" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M2</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
-        <is>
-          <t>Dr. Hassan Tariq</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="12" t="inlineStr"/>
-      <c r="B12" s="12" t="inlineStr">
-        <is>
-          <t>8:00 - 9:20</t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="inlineStr">
-        <is>
-          <t>Ground Floor R3</t>
-        </is>
-      </c>
-      <c r="D12" s="12" t="inlineStr">
-        <is>
-          <t>IT-506-P</t>
-        </is>
-      </c>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M2</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="inlineStr">
-        <is>
-          <t>Mr.Ali Usama</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="12" t="inlineStr"/>
-      <c r="B13" s="12" t="inlineStr">
-        <is>
-          <t>10:40 - 12:00</t>
-        </is>
-      </c>
-      <c r="C13" s="12" t="inlineStr">
-        <is>
-          <t>Second Floor  Lab#3</t>
-        </is>
-      </c>
-      <c r="D13" s="12" t="inlineStr">
-        <is>
-          <t>IT-504-T</t>
-        </is>
-      </c>
-      <c r="E13" s="12" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M1, BSIT-6th-M2</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>Sana Azam</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="12" t="inlineStr"/>
-      <c r="B14" s="12" t="inlineStr">
-        <is>
-          <t>12:00 - 1:00</t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="inlineStr">
-        <is>
-          <t>First Floor Lab#2</t>
-        </is>
-      </c>
-      <c r="D14" s="12" t="inlineStr">
-        <is>
-          <t>IT-502-P</t>
-        </is>
-      </c>
-      <c r="E14" s="12" t="inlineStr">
-        <is>
-          <t>BSIT-6th-M2</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="inlineStr">
-        <is>
-          <t>Dr. Hassan Tariq</t>
+          <t>Ms. Rizwana Usman</t>
         </is>
       </c>
     </row>
